--- a/src/main/webapp/resources/movieRoomFile/MR2010.xlsx
+++ b/src/main/webapp/resources/movieRoomFile/MR2010.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3429" uniqueCount="2">
+<x:sst xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3390" uniqueCount="2">
   <x:si>
     <x:t>.</x:t>
   </x:si>
@@ -925,10 +925,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D1" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1" t="s">
         <x:v>0</x:v>
@@ -946,10 +946,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K1" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L1" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M1" t="s">
         <x:v>0</x:v>
@@ -1002,7 +1002,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C2" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D2" t="s">
         <x:v>0</x:v>
@@ -1011,19 +1011,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F2" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G2" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H2" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I2" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J2" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K2" t="s">
         <x:v>0</x:v>
@@ -1032,7 +1032,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M2" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N2" t="s">
         <x:v>0</x:v>
@@ -1085,31 +1085,31 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D3" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E3" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F3" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="E3" t="s">
+      <x:c r="G3" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="F3" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G3" t="s">
-        <x:v>0</x:v>
-      </x:c>
       <x:c r="H3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M3" t="s">
         <x:v>0</x:v>
@@ -1162,28 +1162,28 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C4" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D4" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E4" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F4" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="D4" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E4" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F4" t="s">
-        <x:v>0</x:v>
-      </x:c>
       <x:c r="G4" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H4" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I4" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J4" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K4" t="s">
         <x:v>0</x:v>
@@ -1192,7 +1192,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M4" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N4" t="s">
         <x:v>0</x:v>
@@ -1242,37 +1242,37 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C5" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D5" t="s">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E5" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F5" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G5" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H5" t="s">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I5" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J5" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K5" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L5" t="s">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M5" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N5" t="s">
         <x:v>0</x:v>
@@ -1319,7 +1319,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B6" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C6" t="s">
         <x:v>0</x:v>
@@ -1355,7 +1355,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N6" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O6" t="s">
         <x:v>0</x:v>
@@ -1399,7 +1399,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B7" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C7" t="s">
         <x:v>0</x:v>
@@ -1411,7 +1411,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F7" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G7" t="s">
         <x:v>0</x:v>
@@ -1423,7 +1423,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J7" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K7" t="s">
         <x:v>0</x:v>
@@ -1435,7 +1435,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N7" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O7" t="s">
         <x:v>0</x:v>
@@ -1479,7 +1479,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B8" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C8" t="s">
         <x:v>0</x:v>
@@ -1515,7 +1515,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N8" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O8" t="s">
         <x:v>0</x:v>
@@ -1562,7 +1562,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C9" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D9" t="s">
         <x:v>0</x:v>
@@ -1577,7 +1577,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H9" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I9" t="s">
         <x:v>0</x:v>
@@ -1592,7 +1592,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M9" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N9" t="s">
         <x:v>0</x:v>
@@ -1642,7 +1642,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C10" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D10" t="s">
         <x:v>0</x:v>
@@ -1654,13 +1654,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G10" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H10" t="s">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I10" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J10" t="s">
         <x:v>0</x:v>
@@ -1672,7 +1672,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M10" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N10" t="s">
         <x:v>0</x:v>
@@ -1725,10 +1725,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D11" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E11" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F11" t="s">
         <x:v>0</x:v>
@@ -1746,10 +1746,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K11" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L11" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M11" t="s">
         <x:v>0</x:v>
@@ -1811,19 +1811,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F12" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G12" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H12" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I12" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J12" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K12" t="s">
         <x:v>0</x:v>
